--- a/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
+++ b/com.myntrajio/src/test/resources/Data/Empdetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAVANI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAVANI\git\repository\com.myntrajio\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBAF925-DA1C-4A79-909B-9B80FDEE48D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC71E5-B0BE-400E-A251-245629071251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DA87D948-62C4-4C93-96E7-E40E893F379E}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +118,21 @@
   </si>
   <si>
     <t>adminuser5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876543210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876543260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876544210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876143210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9876546210</t>
   </si>
 </sst>
 </file>
@@ -178,9 +183,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,12 +505,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
@@ -540,8 +547,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>9876543210</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -560,8 +567,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>9876543260</v>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -580,8 +587,8 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>9876544210</v>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -600,8 +607,8 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>9876143210</v>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -620,8 +627,8 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>9876546210</v>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
